--- a/Configs/GameConfig/Datas/__tables__.xlsx
+++ b/Configs/GameConfig/Datas/__tables__.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12900"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -97,45 +110,80 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>item.TbItem</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>item.xlsx</t>
+    <t>Chess_Config</t>
+  </si>
+  <si>
+    <t>Chess_ConfigItem</t>
+  </si>
+  <si>
+    <t>Config@Chess.xlsx</t>
+  </si>
+  <si>
+    <t>Chess_Group</t>
+  </si>
+  <si>
+    <t>Chess_GroupItem</t>
+  </si>
+  <si>
+    <t>Group@Chess.xlsx</t>
+  </si>
+  <si>
+    <t>Chess_Initial</t>
+  </si>
+  <si>
+    <t>Chess_InitialItem</t>
+  </si>
+  <si>
+    <t>Initial@Chess.xlsx</t>
+  </si>
+  <si>
+    <t>Chess_Tag</t>
+  </si>
+  <si>
+    <t>Chess_TagItem</t>
+  </si>
+  <si>
+    <t>Tag@Chess.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -143,14 +191,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -158,7 +206,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +214,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -174,7 +222,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -182,7 +230,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -190,14 +238,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -205,7 +253,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -213,7 +261,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -221,14 +269,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -236,35 +284,35 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -589,194 +637,215 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="22" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1045,18 +1114,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="20.3809523809524" customWidth="1"/>
-    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="32.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="24.3809523809524" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="33.1416666666667" customWidth="1"/>
+    <col min="4" max="4" width="32.425" customWidth="1"/>
+    <col min="5" max="5" width="52.8583333333333" style="3" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1073,7 +1142,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1108,7 +1177,7 @@
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1134,7 +1203,7 @@
       <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1160,11 +1229,257 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="2:5">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="2:5">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="5:5">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" customFormat="1" spans="5:5">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="1" spans="5:5">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" customFormat="1" spans="5:5">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" customFormat="1" spans="5:5">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="5"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" customFormat="1" spans="5:6">
+      <c r="E18" s="5"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" customFormat="1" spans="5:6">
+      <c r="E19" s="5"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" customFormat="1" spans="5:5">
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="5:5">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" customFormat="1" spans="5:5">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" customFormat="1" spans="5:5">
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" customFormat="1" spans="5:5">
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" customFormat="1" spans="5:5">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" customFormat="1" spans="5:5">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" customFormat="1" spans="5:5">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" customFormat="1" spans="5:5">
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" customFormat="1" spans="5:5">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" customFormat="1" spans="5:5">
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" customFormat="1" spans="5:5">
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" customFormat="1" spans="5:5">
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" customFormat="1" spans="5:5">
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" customFormat="1" spans="5:5">
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" customFormat="1" spans="5:5">
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" customFormat="1" spans="5:5">
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" customFormat="1" spans="5:5">
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" customFormat="1" spans="5:5">
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" customFormat="1" spans="5:5">
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" customFormat="1" spans="5:5">
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="5:5">
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" customFormat="1" spans="5:5">
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" customFormat="1" spans="5:5">
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" customFormat="1" spans="5:5">
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" customFormat="1" spans="5:5">
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" customFormat="1" spans="5:5">
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" customFormat="1" spans="5:5">
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" customFormat="1" spans="5:5">
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" customFormat="1" spans="5:5">
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" customFormat="1" spans="5:5">
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" customFormat="1" spans="5:5">
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="5:5">
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" customFormat="1" spans="5:5">
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" customFormat="1" spans="5:5">
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" customFormat="1" spans="5:5">
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" customFormat="1" spans="5:5">
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" customFormat="1" spans="5:5">
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" customFormat="1" spans="5:5">
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" customFormat="1" spans="5:5">
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" customFormat="1" spans="5:5">
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" customFormat="1" spans="5:5">
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" customFormat="1" spans="5:5">
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" customFormat="1" spans="5:5">
+      <c r="E72" s="5"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" display="Config@Chess.xlsx" tooltip="mailto:Config@Chess.xlsx"/>
+    <hyperlink ref="E5" r:id="rId2" display="Group@Chess.xlsx" tooltip="mailto:Group@Chess.xlsx"/>
+    <hyperlink ref="E6" r:id="rId3" display="Initial@Chess.xlsx" tooltip="mailto:Initial@Chess.xlsx"/>
+    <hyperlink ref="E7" r:id="rId4" display="Tag@Chess.xlsx" tooltip="mailto:Tag@Chess.xlsx"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
